--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H2">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I2">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J2">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>2599.851793546809</v>
+        <v>5363.702854221449</v>
       </c>
       <c r="R2">
-        <v>23398.66614192128</v>
+        <v>48273.32568799304</v>
       </c>
       <c r="S2">
-        <v>0.3121232572423814</v>
+        <v>0.2724393568560301</v>
       </c>
       <c r="T2">
-        <v>0.3121232572423813</v>
+        <v>0.2724393568560301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H3">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I3">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J3">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>931.7216658202019</v>
+        <v>2029.875088083261</v>
       </c>
       <c r="R3">
-        <v>8385.494992381819</v>
+        <v>18268.87579274935</v>
       </c>
       <c r="S3">
-        <v>0.1118571458192096</v>
+        <v>0.103103747266729</v>
       </c>
       <c r="T3">
-        <v>0.1118571458192096</v>
+        <v>0.103103747266729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H4">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I4">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J4">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>1345.754483339247</v>
+        <v>2454.591351290368</v>
       </c>
       <c r="R4">
-        <v>12111.79035005322</v>
+        <v>22091.32216161332</v>
       </c>
       <c r="S4">
-        <v>0.1615635452109171</v>
+        <v>0.1246764235948691</v>
       </c>
       <c r="T4">
-        <v>0.1615635452109171</v>
+        <v>0.1246764235948691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H5">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I5">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J5">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>427.475784179706</v>
+        <v>793.7196881946661</v>
       </c>
       <c r="R5">
-        <v>3847.282057617354</v>
+        <v>7143.477193751995</v>
       </c>
       <c r="S5">
-        <v>0.05132028467222274</v>
+        <v>0.04031552217802925</v>
       </c>
       <c r="T5">
-        <v>0.05132028467222272</v>
+        <v>0.04031552217802924</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H6">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I6">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J6">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>523.316059092018</v>
+        <v>1056.914789731884</v>
       </c>
       <c r="R6">
-        <v>4709.844531828162</v>
+        <v>9512.233107586961</v>
       </c>
       <c r="S6">
-        <v>0.0628263169987141</v>
+        <v>0.05368403011728298</v>
       </c>
       <c r="T6">
-        <v>0.06282631699871408</v>
+        <v>0.05368403011728297</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.687079</v>
+        <v>58.14122266666666</v>
       </c>
       <c r="H7">
-        <v>80.06123699999999</v>
+        <v>174.423668</v>
       </c>
       <c r="I7">
-        <v>0.904368363808284</v>
+        <v>0.9543503167859916</v>
       </c>
       <c r="J7">
-        <v>0.9043683638082839</v>
+        <v>0.9543503167859917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>1704.877701768027</v>
+        <v>7090.153804740788</v>
       </c>
       <c r="R7">
-        <v>15343.89931591224</v>
+        <v>63811.38424266709</v>
       </c>
       <c r="S7">
-        <v>0.2046778138648391</v>
+        <v>0.3601312367730512</v>
       </c>
       <c r="T7">
-        <v>0.204677813864839</v>
+        <v>0.3601312367730512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.531017</v>
       </c>
       <c r="I8">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J8">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>114.6637402129357</v>
+        <v>108.5823167140623</v>
       </c>
       <c r="R8">
-        <v>1031.973661916421</v>
+        <v>977.240850426561</v>
       </c>
       <c r="S8">
-        <v>0.01376586933597119</v>
+        <v>0.005515237763075302</v>
       </c>
       <c r="T8">
-        <v>0.01376586933597118</v>
+        <v>0.005515237763075301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.531017</v>
       </c>
       <c r="I9">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J9">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
         <v>41.09260816541534</v>
@@ -1013,10 +1013,10 @@
         <v>369.833473488738</v>
       </c>
       <c r="S9">
-        <v>0.004933342254743181</v>
+        <v>0.002087222958540946</v>
       </c>
       <c r="T9">
-        <v>0.004933342254743178</v>
+        <v>0.002087222958540946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.531017</v>
       </c>
       <c r="I10">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J10">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>59.35309191509367</v>
+        <v>49.69052588355879</v>
       </c>
       <c r="R10">
-        <v>534.177827235843</v>
+        <v>447.2147329520291</v>
       </c>
       <c r="S10">
-        <v>0.007125590936348101</v>
+        <v>0.002523938272027877</v>
       </c>
       <c r="T10">
-        <v>0.007125590936348096</v>
+        <v>0.002523938272027877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.531017</v>
       </c>
       <c r="I11">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J11">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>18.85337171379045</v>
+        <v>16.06798976529989</v>
       </c>
       <c r="R11">
-        <v>169.680345424114</v>
+        <v>144.611907887699</v>
       </c>
       <c r="S11">
-        <v>0.002263427401483417</v>
+        <v>0.0008161437940549348</v>
       </c>
       <c r="T11">
-        <v>0.002263427401483415</v>
+        <v>0.0008161437940549347</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3.531017</v>
       </c>
       <c r="I12">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J12">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>23.08030665360467</v>
+        <v>21.39608765763778</v>
       </c>
       <c r="R12">
-        <v>207.722759882442</v>
+        <v>192.56478891874</v>
       </c>
       <c r="S12">
-        <v>0.002770888905574224</v>
+        <v>0.001086774662786235</v>
       </c>
       <c r="T12">
-        <v>0.002770888905574222</v>
+        <v>0.001086774662786235</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.531017</v>
       </c>
       <c r="I13">
-        <v>0.03988621943062454</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="J13">
-        <v>0.03988621943062453</v>
+        <v>0.01931978171979919</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>75.19184531040702</v>
+        <v>143.5324340109302</v>
       </c>
       <c r="R13">
-        <v>676.7266077936631</v>
+        <v>1291.791906098372</v>
       </c>
       <c r="S13">
-        <v>0.009027100596504436</v>
+        <v>0.007290464269313893</v>
       </c>
       <c r="T13">
-        <v>0.009027100596504429</v>
+        <v>0.007290464269313893</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H14">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I14">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J14">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>7.684187164867001</v>
+        <v>8.195142477166666</v>
       </c>
       <c r="R14">
-        <v>69.15768448380301</v>
+        <v>73.75628229449998</v>
       </c>
       <c r="S14">
-        <v>0.0009225193271060996</v>
+        <v>0.0004162570907643796</v>
       </c>
       <c r="T14">
-        <v>0.0009225193271060992</v>
+        <v>0.0004162570907643796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H15">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I15">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J15">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>2.753819922926</v>
+        <v>3.101423775666666</v>
       </c>
       <c r="R15">
-        <v>24.784379306334</v>
+        <v>27.912813981</v>
       </c>
       <c r="S15">
-        <v>0.0003306077855422767</v>
+        <v>0.0001575310791341877</v>
       </c>
       <c r="T15">
-        <v>0.0003306077855422766</v>
+        <v>0.0001575310791341877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H16">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I16">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J16">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>3.977545702261</v>
+        <v>3.750343073388889</v>
       </c>
       <c r="R16">
-        <v>35.797911320349</v>
+        <v>33.7530876605</v>
       </c>
       <c r="S16">
-        <v>0.0004775212662128183</v>
+        <v>0.0001904917335417612</v>
       </c>
       <c r="T16">
-        <v>0.0004775212662128181</v>
+        <v>0.0001904917335417612</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H17">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I17">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J17">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>1.263458148744667</v>
+        <v>1.212715563944444</v>
       </c>
       <c r="R17">
-        <v>11.371123338702</v>
+        <v>10.9144400755</v>
       </c>
       <c r="S17">
-        <v>0.0001516835204816126</v>
+        <v>6.159764201521546E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001516835204816125</v>
+        <v>6.159764201521546E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H18">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I18">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J18">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>1.546726068934</v>
+        <v>1.614848458888889</v>
       </c>
       <c r="R18">
-        <v>13.920534620406</v>
+        <v>14.53363613</v>
       </c>
       <c r="S18">
-        <v>0.0001856910381952095</v>
+        <v>8.202323796020567E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001856910381952094</v>
+        <v>8.202323796020567E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.078877</v>
+        <v>0.08883333333333332</v>
       </c>
       <c r="H19">
-        <v>0.236631</v>
+        <v>0.2665</v>
       </c>
       <c r="I19">
-        <v>0.002672973817483211</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="J19">
-        <v>0.00267297381748321</v>
+        <v>0.001458141331046121</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>5.038979293401001</v>
+        <v>10.83296785711111</v>
       </c>
       <c r="R19">
-        <v>45.350813640609</v>
+        <v>97.49671071399999</v>
       </c>
       <c r="S19">
-        <v>0.0006049508799451944</v>
+        <v>0.0005502405476303716</v>
       </c>
       <c r="T19">
-        <v>0.0006049508799451941</v>
+        <v>0.0005502405476303717</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H20">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I20">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J20">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N20">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O20">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P20">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q20">
-        <v>134.0339929501883</v>
+        <v>110.0846569981973</v>
       </c>
       <c r="R20">
-        <v>1206.305936551695</v>
+        <v>990.7619129837759</v>
       </c>
       <c r="S20">
-        <v>0.01609135050107692</v>
+        <v>0.005591546356581095</v>
       </c>
       <c r="T20">
-        <v>0.01609135050107691</v>
+        <v>0.005591546356581094</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H21">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I21">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J21">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q21">
-        <v>48.03442084585667</v>
+        <v>41.66116373224533</v>
       </c>
       <c r="R21">
-        <v>432.30978761271</v>
+        <v>374.950473590208</v>
       </c>
       <c r="S21">
-        <v>0.005766736369886154</v>
+        <v>0.002116101686012243</v>
       </c>
       <c r="T21">
-        <v>0.00576673636988615</v>
+        <v>0.002116101686012243</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H22">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I22">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J22">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N22">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q22">
-        <v>69.37966517179832</v>
+        <v>50.37804187174046</v>
       </c>
       <c r="R22">
-        <v>624.4169865461849</v>
+        <v>453.402376845664</v>
       </c>
       <c r="S22">
-        <v>0.008329323668971524</v>
+        <v>0.002558859373874716</v>
       </c>
       <c r="T22">
-        <v>0.00832932366897152</v>
+        <v>0.002558859373874716</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H23">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I23">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J23">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N23">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O23">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P23">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q23">
-        <v>22.03828940762556</v>
+        <v>16.29030578359822</v>
       </c>
       <c r="R23">
-        <v>198.34460466863</v>
+        <v>146.612752052384</v>
       </c>
       <c r="S23">
-        <v>0.002645790306598304</v>
+        <v>0.000827435924639</v>
       </c>
       <c r="T23">
-        <v>0.002645790306598303</v>
+        <v>0.0008274359246389998</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H24">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I24">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J24">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N24">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O24">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P24">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q24">
-        <v>26.97928441504333</v>
+        <v>21.69212301020445</v>
       </c>
       <c r="R24">
-        <v>242.81355973539</v>
+        <v>195.22910709184</v>
       </c>
       <c r="S24">
-        <v>0.003238977756575851</v>
+        <v>0.001101811230480591</v>
       </c>
       <c r="T24">
-        <v>0.003238977756575849</v>
+        <v>0.001101811230480591</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.375838333333333</v>
+        <v>1.193290666666667</v>
       </c>
       <c r="H25">
-        <v>4.127515</v>
+        <v>3.579872</v>
       </c>
       <c r="I25">
-        <v>0.04662423573525538</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="J25">
-        <v>0.04662423573525536</v>
+        <v>0.01958708939232548</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N25">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O25">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P25">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q25">
-        <v>87.894073972565</v>
+        <v>145.5183426212836</v>
       </c>
       <c r="R25">
-        <v>791.046665753085</v>
+        <v>1309.665083591552</v>
       </c>
       <c r="S25">
-        <v>0.01055205713214663</v>
+        <v>0.00739133482073784</v>
       </c>
       <c r="T25">
-        <v>0.01055205713214662</v>
+        <v>0.00739133482073784</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H26">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I26">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J26">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N26">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O26">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P26">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q26">
-        <v>5.396703647206333</v>
+        <v>23.54844208585267</v>
       </c>
       <c r="R26">
-        <v>48.570332824857</v>
+        <v>211.935978772674</v>
       </c>
       <c r="S26">
-        <v>0.0006478972089558663</v>
+        <v>0.00119609952139349</v>
       </c>
       <c r="T26">
-        <v>0.000647897208955866</v>
+        <v>0.00119609952139349</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H27">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I27">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J27">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q27">
-        <v>1.934043211460667</v>
+        <v>8.911827752654666</v>
       </c>
       <c r="R27">
-        <v>17.406388903146</v>
+        <v>80.20644977389202</v>
       </c>
       <c r="S27">
-        <v>0.0002321901072618779</v>
+        <v>0.0004526597925599248</v>
       </c>
       <c r="T27">
-        <v>0.0002321901072618778</v>
+        <v>0.0004526597925599249</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H28">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I28">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J28">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N28">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q28">
-        <v>2.793481592492333</v>
+        <v>10.77647361370956</v>
       </c>
       <c r="R28">
-        <v>25.141334332431</v>
+        <v>96.98826252338603</v>
       </c>
       <c r="S28">
-        <v>0.0003353693375366797</v>
+        <v>0.0005473710271224871</v>
       </c>
       <c r="T28">
-        <v>0.0003353693375366796</v>
+        <v>0.0005473710271224873</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H29">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I29">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J29">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N29">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O29">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P29">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q29">
-        <v>0.8873429359708889</v>
+        <v>3.484693805351777</v>
       </c>
       <c r="R29">
-        <v>7.986086423738</v>
+        <v>31.362244248166</v>
       </c>
       <c r="S29">
-        <v>0.0001065292906902254</v>
+        <v>0.0001769985707584528</v>
       </c>
       <c r="T29">
-        <v>0.0001065292906902253</v>
+        <v>0.0001769985707584528</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H30">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I30">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J30">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N30">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O30">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P30">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q30">
-        <v>1.086285645879333</v>
+        <v>4.640207966795556</v>
       </c>
       <c r="R30">
-        <v>9.776570812914002</v>
+        <v>41.76187170116</v>
       </c>
       <c r="S30">
-        <v>0.0001304132085256102</v>
+        <v>0.0002356907734284818</v>
       </c>
       <c r="T30">
-        <v>0.0001304132085256101</v>
+        <v>0.0002356907734284818</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.05539633333333333</v>
+        <v>0.2552593333333333</v>
       </c>
       <c r="H31">
-        <v>0.166189</v>
+        <v>0.7657780000000001</v>
       </c>
       <c r="I31">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126967</v>
       </c>
       <c r="J31">
-        <v>0.001877263950005356</v>
+        <v>0.004189915768126968</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N31">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O31">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P31">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q31">
-        <v>3.538940078819</v>
+        <v>31.12813680931645</v>
       </c>
       <c r="R31">
-        <v>31.850460709371</v>
+        <v>280.153231283848</v>
       </c>
       <c r="S31">
-        <v>0.0004248647970350965</v>
+        <v>0.001581096082864131</v>
       </c>
       <c r="T31">
-        <v>0.0004248647970350963</v>
+        <v>0.001581096082864131</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H32">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I32">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J32">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N32">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O32">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P32">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q32">
-        <v>13.14041435325434</v>
+        <v>6.152814568645001</v>
       </c>
       <c r="R32">
-        <v>118.263729179289</v>
+        <v>55.375331117805</v>
       </c>
       <c r="S32">
-        <v>0.0015775625901571</v>
+        <v>0.0003125208255369265</v>
       </c>
       <c r="T32">
-        <v>0.001577562590157099</v>
+        <v>0.0003125208255369265</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H33">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I33">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J33">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>104.738514</v>
       </c>
       <c r="O33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q33">
-        <v>4.709194878404667</v>
+        <v>2.32851173041</v>
       </c>
       <c r="R33">
-        <v>42.38275390564201</v>
+        <v>20.95660557369</v>
       </c>
       <c r="S33">
-        <v>0.0005653588593338952</v>
+        <v>0.0001182724426587765</v>
       </c>
       <c r="T33">
-        <v>0.0005653588593338948</v>
+        <v>0.0001182724426587765</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H34">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I34">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J34">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N34">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q34">
-        <v>6.801838309676334</v>
+        <v>2.815712547238334</v>
       </c>
       <c r="R34">
-        <v>61.216544787087</v>
+        <v>25.341412925145</v>
       </c>
       <c r="S34">
-        <v>0.0008165895970384929</v>
+        <v>0.0001430189062127703</v>
       </c>
       <c r="T34">
-        <v>0.0008165895970384924</v>
+        <v>0.0001430189062127703</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H35">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I35">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J35">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N35">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O35">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P35">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q35">
-        <v>2.160588132002889</v>
+        <v>0.9104922837216667</v>
       </c>
       <c r="R35">
-        <v>19.445293188026</v>
+        <v>8.194430553495</v>
       </c>
       <c r="S35">
-        <v>0.0002593877877938478</v>
+        <v>4.624676999104836E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002593877877938477</v>
+        <v>4.624676999104836E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H36">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I36">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J36">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N36">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O36">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P36">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q36">
-        <v>2.644993022775334</v>
+        <v>1.212408832633334</v>
       </c>
       <c r="R36">
-        <v>23.80493720497801</v>
+        <v>10.9116794937</v>
       </c>
       <c r="S36">
-        <v>0.0003175426536624793</v>
+        <v>6.158206216610789E-05</v>
       </c>
       <c r="T36">
-        <v>0.000317542653662479</v>
+        <v>6.158206216610789E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.1348843333333334</v>
+        <v>0.066695</v>
       </c>
       <c r="H37">
-        <v>0.404653</v>
+        <v>0.200085</v>
       </c>
       <c r="I37">
-        <v>0.004570943258347528</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="J37">
-        <v>0.004570943258347527</v>
+        <v>0.001094755002710556</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N37">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O37">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P37">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q37">
-        <v>8.616952504163002</v>
+        <v>8.133262190206668</v>
       </c>
       <c r="R37">
-        <v>77.55257253746701</v>
+        <v>73.19935971186001</v>
       </c>
       <c r="S37">
-        <v>0.001034501770361714</v>
+        <v>0.0004131139961449266</v>
       </c>
       <c r="T37">
-        <v>0.001034501770361714</v>
+        <v>0.0004131139961449266</v>
       </c>
     </row>
   </sheetData>
